--- a/src/spreadsheets/shippingCredentials.xlsx
+++ b/src/spreadsheets/shippingCredentials.xlsx
@@ -1,34 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Shipping" sheetId="1" r:id="rId3"/>
+    <sheet sheetId="1" name="Shipping" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="14">
+  <si>
+    <t>John Doe Mária</t>
+  </si>
+  <si>
+    <t>Nyíregyháza</t>
+  </si>
+  <si>
+    <t>Kossuth utca 8888.</t>
+  </si>
+  <si>
+    <t>706593471</t>
+  </si>
+  <si>
+    <t>mark.frankli@pearscom.com</t>
+  </si>
+  <si>
+    <t>Alkatrészek</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Kiss János Péter</t>
+  </si>
+  <si>
+    <t>Selyem utca 21</t>
+  </si>
+  <si>
+    <t>23423423</t>
+  </si>
+  <si>
+    <t>mark@pearscom.com</t>
+  </si>
+  <si>
+    <t>Márk Frankli</t>
+  </si>
+  <si>
+    <t>Alpár Ignác u. 43.</t>
+  </si>
+  <si>
+    <t>06706538702</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -42,11 +86,10 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,13 +139,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -143,42 +179,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -186,22 +218,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1290,12 +1315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.83333"/>
   <cols>
     <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.6719" style="1" customWidth="1"/>
@@ -1314,7 +1339,7 @@
     <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1330,7 +1355,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1346,7 +1371,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1362,7 +1387,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1378,7 +1403,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1394,7 +1419,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1410,7 +1435,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1426,7 +1451,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1442,7 +1467,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1458,7 +1483,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1474,7 +1499,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1490,7 +1515,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1506,7 +1531,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1522,7 +1547,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1538,7 +1563,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1554,7 +1579,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1570,7 +1595,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1586,7 +1611,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1602,7 +1627,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1618,7 +1643,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1634,7 +1659,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1650,7 +1675,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1666,7 +1691,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1682,7 +1707,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1698,7 +1723,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1714,7 +1739,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1730,7 +1755,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1746,7 +1771,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1762,7 +1787,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1778,7 +1803,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1794,7 +1819,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1810,7 +1835,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1826,7 +1851,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1842,7 +1867,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1858,7 +1883,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1874,7 +1899,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1890,7 +1915,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1906,7 +1931,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1922,7 +1947,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1938,7 +1963,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1954,7 +1979,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1970,7 +1995,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1986,7 +2011,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2002,7 +2027,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2018,7 +2043,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
+    <row r="45" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2034,7 +2059,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
+    <row r="46" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2050,7 +2075,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
+    <row r="47" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2066,7 +2091,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
+    <row r="48" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2082,7 +2107,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
+    <row r="49" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2098,7 +2123,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
+    <row r="50" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2114,7 +2139,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
+    <row r="51" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2130,7 +2155,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
+    <row r="52" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2146,7 +2171,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
+    <row r="53" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2162,7 +2187,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
+    <row r="54" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2178,7 +2203,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
+    <row r="55" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2194,7 +2219,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
+    <row r="56" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2210,7 +2235,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
+    <row r="57" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2226,7 +2251,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
+    <row r="58" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2242,7 +2267,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
+    <row r="59" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2258,7 +2283,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
+    <row r="60" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2274,7 +2299,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
+    <row r="61" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2290,7 +2315,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
+    <row r="62" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2306,7 +2331,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
+    <row r="63" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2322,7 +2347,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
+    <row r="64" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2338,7 +2363,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
+    <row r="65" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2354,7 +2379,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
+    <row r="66" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2370,9 +2395,2428 @@
       <c r="M66" s="9"/>
       <c r="N66" s="10"/>
     </row>
+    <row r="67" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>30</v>
+      </c>
+      <c r="J67" s="1">
+        <v>30</v>
+      </c>
+      <c r="K67" s="1">
+        <v>20</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="1">
+        <v>509038</v>
+      </c>
+    </row>
+    <row r="68" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1">
+        <v>30</v>
+      </c>
+      <c r="K68" s="1">
+        <v>20</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" s="1">
+        <v>509038</v>
+      </c>
+    </row>
+    <row r="69" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>30</v>
+      </c>
+      <c r="J69" s="1">
+        <v>30</v>
+      </c>
+      <c r="K69" s="1">
+        <v>20</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69" s="1">
+        <v>509038</v>
+      </c>
+    </row>
+    <row r="70" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>30</v>
+      </c>
+      <c r="J70" s="1">
+        <v>30</v>
+      </c>
+      <c r="K70" s="1">
+        <v>20</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="1">
+        <v>509038</v>
+      </c>
+    </row>
+    <row r="71" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>30</v>
+      </c>
+      <c r="J71" s="1">
+        <v>30</v>
+      </c>
+      <c r="K71" s="1">
+        <v>20</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="1">
+        <v>509038</v>
+      </c>
+    </row>
+    <row r="72" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>15</v>
+      </c>
+      <c r="J72" s="1">
+        <v>20</v>
+      </c>
+      <c r="K72" s="1">
+        <v>15</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="1">
+        <v>143681</v>
+      </c>
+    </row>
+    <row r="73" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1">
+        <v>20</v>
+      </c>
+      <c r="K73" s="1">
+        <v>25</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N73" s="1">
+        <v>262891</v>
+      </c>
+    </row>
+    <row r="74" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>30</v>
+      </c>
+      <c r="J74" s="1">
+        <v>30</v>
+      </c>
+      <c r="K74" s="1">
+        <v>20</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" s="1">
+        <v>14430</v>
+      </c>
+    </row>
+    <row r="75" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>18</v>
+      </c>
+      <c r="J75" s="1">
+        <v>16</v>
+      </c>
+      <c r="K75" s="1">
+        <v>5</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1">
+        <v>20</v>
+      </c>
+      <c r="K76" s="1">
+        <v>25</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="77" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>18</v>
+      </c>
+      <c r="J77" s="1">
+        <v>7</v>
+      </c>
+      <c r="K77" s="1">
+        <v>12</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="78" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>18</v>
+      </c>
+      <c r="J78" s="1">
+        <v>16</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="1">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="79" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1">
+        <v>20</v>
+      </c>
+      <c r="K79" s="1">
+        <v>25</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N79" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="80" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1">
+        <v>15</v>
+      </c>
+      <c r="J80" s="1">
+        <v>20</v>
+      </c>
+      <c r="K80" s="1">
+        <v>25</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="1">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1">
+        <v>20</v>
+      </c>
+      <c r="K81" s="1">
+        <v>15</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1">
+        <v>15</v>
+      </c>
+      <c r="J82" s="1">
+        <v>20</v>
+      </c>
+      <c r="K82" s="1">
+        <v>15</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N82" s="1">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="83" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1">
+        <v>15</v>
+      </c>
+      <c r="J83" s="1">
+        <v>20</v>
+      </c>
+      <c r="K83" s="1">
+        <v>25</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>15</v>
+      </c>
+      <c r="J84" s="1">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1">
+        <v>15</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84" s="1">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="85" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="1">
+        <v>15</v>
+      </c>
+      <c r="J85" s="1">
+        <v>20</v>
+      </c>
+      <c r="K85" s="1">
+        <v>25</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>18</v>
+      </c>
+      <c r="J86" s="1">
+        <v>7</v>
+      </c>
+      <c r="K86" s="1">
+        <v>12</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N86" s="1">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="87" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="1">
+        <v>18</v>
+      </c>
+      <c r="J87" s="1">
+        <v>7</v>
+      </c>
+      <c r="K87" s="1">
+        <v>12</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>18</v>
+      </c>
+      <c r="J88" s="1">
+        <v>16</v>
+      </c>
+      <c r="K88" s="1">
+        <v>5</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N88" s="1">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="89" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="1">
+        <v>18</v>
+      </c>
+      <c r="J89" s="1">
+        <v>16</v>
+      </c>
+      <c r="K89" s="1">
+        <v>5</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="1">
+        <v>18</v>
+      </c>
+      <c r="J90" s="1">
+        <v>7</v>
+      </c>
+      <c r="K90" s="1">
+        <v>12</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N90" s="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="91" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="1">
+        <v>15</v>
+      </c>
+      <c r="J91" s="1">
+        <v>20</v>
+      </c>
+      <c r="K91" s="1">
+        <v>25</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N91" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="92" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="1">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1">
+        <v>20</v>
+      </c>
+      <c r="K92" s="1">
+        <v>25</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1">
+        <v>15</v>
+      </c>
+      <c r="J93" s="1">
+        <v>20</v>
+      </c>
+      <c r="K93" s="1">
+        <v>25</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N93" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="94" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="1">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1">
+        <v>20</v>
+      </c>
+      <c r="K94" s="1">
+        <v>25</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1">
+        <v>15</v>
+      </c>
+      <c r="J95" s="1">
+        <v>20</v>
+      </c>
+      <c r="K95" s="1">
+        <v>25</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N95" s="1">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="96" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>15</v>
+      </c>
+      <c r="J96" s="1">
+        <v>20</v>
+      </c>
+      <c r="K96" s="1">
+        <v>25</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>18</v>
+      </c>
+      <c r="J97" s="1">
+        <v>16</v>
+      </c>
+      <c r="K97" s="1">
+        <v>5</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N97" s="1">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="98" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1">
+        <v>30</v>
+      </c>
+      <c r="J98" s="1">
+        <v>30</v>
+      </c>
+      <c r="K98" s="1">
+        <v>20</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1">
+        <v>30</v>
+      </c>
+      <c r="J99" s="1">
+        <v>30</v>
+      </c>
+      <c r="K99" s="1">
+        <v>20</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N99" s="1">
+        <v>18675</v>
+      </c>
+    </row>
+    <row r="100" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1">
+        <v>30</v>
+      </c>
+      <c r="J100" s="1">
+        <v>30</v>
+      </c>
+      <c r="K100" s="1">
+        <v>20</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N100" s="1">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="101" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1">
+        <v>30</v>
+      </c>
+      <c r="J101" s="1">
+        <v>30</v>
+      </c>
+      <c r="K101" s="1">
+        <v>20</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="1">
+        <v>30</v>
+      </c>
+      <c r="J102" s="1">
+        <v>30</v>
+      </c>
+      <c r="K102" s="1">
+        <v>20</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N102" s="1">
+        <v>19710</v>
+      </c>
+    </row>
+    <row r="103" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" s="1">
+        <v>15</v>
+      </c>
+      <c r="J103" s="1">
+        <v>20</v>
+      </c>
+      <c r="K103" s="1">
+        <v>25</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N103" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="104" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1">
+        <v>15</v>
+      </c>
+      <c r="J104" s="1">
+        <v>20</v>
+      </c>
+      <c r="K104" s="1">
+        <v>25</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N104" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="105" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1">
+        <v>30</v>
+      </c>
+      <c r="J105" s="1">
+        <v>30</v>
+      </c>
+      <c r="K105" s="1">
+        <v>20</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="1">
+        <v>15</v>
+      </c>
+      <c r="J106" s="1">
+        <v>20</v>
+      </c>
+      <c r="K106" s="1">
+        <v>25</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" s="1">
+        <v>18</v>
+      </c>
+      <c r="J107" s="1">
+        <v>7</v>
+      </c>
+      <c r="K107" s="1">
+        <v>12</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1">
+        <v>30</v>
+      </c>
+      <c r="J108" s="1">
+        <v>30</v>
+      </c>
+      <c r="K108" s="1">
+        <v>20</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N108" s="1">
+        <v>18960</v>
+      </c>
+    </row>
+    <row r="109" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I109" s="1">
+        <v>18</v>
+      </c>
+      <c r="J109" s="1">
+        <v>16</v>
+      </c>
+      <c r="K109" s="1">
+        <v>5</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1">
+        <v>18</v>
+      </c>
+      <c r="J110" s="1">
+        <v>16</v>
+      </c>
+      <c r="K110" s="1">
+        <v>5</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N110" s="1">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="111" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="1">
+        <v>18</v>
+      </c>
+      <c r="J111" s="1">
+        <v>7</v>
+      </c>
+      <c r="K111" s="1">
+        <v>12</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N111" s="1">
+        <v>16235</v>
+      </c>
+    </row>
+    <row r="112" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="1">
+        <v>18</v>
+      </c>
+      <c r="J112" s="1">
+        <v>7</v>
+      </c>
+      <c r="K112" s="1">
+        <v>12</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I113" s="1">
+        <v>30</v>
+      </c>
+      <c r="J113" s="1">
+        <v>30</v>
+      </c>
+      <c r="K113" s="1">
+        <v>20</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N113" s="1">
+        <v>39273</v>
+      </c>
+    </row>
+    <row r="114" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" s="1">
+        <v>30</v>
+      </c>
+      <c r="J114" s="1">
+        <v>30</v>
+      </c>
+      <c r="K114" s="1">
+        <v>20</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N114" s="1">
+        <v>12181</v>
+      </c>
+    </row>
+    <row r="115" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="1">
+        <v>15</v>
+      </c>
+      <c r="J115" s="1">
+        <v>20</v>
+      </c>
+      <c r="K115" s="1">
+        <v>25</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N115" s="1">
+        <v>18685</v>
+      </c>
+    </row>
+    <row r="116" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="1">
+        <v>30</v>
+      </c>
+      <c r="J116" s="1">
+        <v>30</v>
+      </c>
+      <c r="K116" s="1">
+        <v>20</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I117" s="1">
+        <v>15</v>
+      </c>
+      <c r="J117" s="1">
+        <v>20</v>
+      </c>
+      <c r="K117" s="1">
+        <v>25</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N117" s="1">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="118" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I118" s="1">
+        <v>18</v>
+      </c>
+      <c r="J118" s="1">
+        <v>7</v>
+      </c>
+      <c r="K118" s="1">
+        <v>12</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N118" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="119" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I119" s="1">
+        <v>18</v>
+      </c>
+      <c r="J119" s="1">
+        <v>7</v>
+      </c>
+      <c r="K119" s="1">
+        <v>12</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N119" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="120" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="1">
+        <v>15</v>
+      </c>
+      <c r="J120" s="1">
+        <v>20</v>
+      </c>
+      <c r="K120" s="1">
+        <v>15</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N120" s="1">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="121" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I121" s="1">
+        <v>18</v>
+      </c>
+      <c r="J121" s="1">
+        <v>16</v>
+      </c>
+      <c r="K121" s="1">
+        <v>5</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N121" s="1">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="122" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="1">
+        <v>18</v>
+      </c>
+      <c r="J122" s="1">
+        <v>7</v>
+      </c>
+      <c r="K122" s="1">
+        <v>12</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I123" s="1">
+        <v>15</v>
+      </c>
+      <c r="J123" s="1">
+        <v>20</v>
+      </c>
+      <c r="K123" s="1">
+        <v>25</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N123" s="1">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="124" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I124" s="1">
+        <v>15</v>
+      </c>
+      <c r="J124" s="1">
+        <v>20</v>
+      </c>
+      <c r="K124" s="1">
+        <v>25</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1">
+        <v>15</v>
+      </c>
+      <c r="J125" s="1">
+        <v>20</v>
+      </c>
+      <c r="K125" s="1">
+        <v>25</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N125" s="1">
+        <v>11760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
